--- a/dy_memo/요청데이터_20251010/INOPNC_샘플데이터.xlsx
+++ b/dy_memo/요청데이터_20251010/INOPNC_샘플데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inopn\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidyang/workspace/INOPNC_WM_20250829/dy_memo/요청데이터_20251010/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B643713B-AB97-4B4D-ABB4-3DC30B09CB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5340767F-FD0C-D740-8836-E8D94F8D7E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="921" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="500" windowWidth="29040" windowHeight="26220" tabRatio="921" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_소속사" sheetId="1" r:id="rId1"/>
@@ -2448,7 +2448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2835,17 +2835,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>636</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>636</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>763</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>770</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>772</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>772</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>736</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>736</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>736</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>736</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>765</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>736</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>736</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>736</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>736</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>736</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>738</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>718</v>
       </c>
@@ -2997,12 +2997,12 @@
         <v>774</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>736</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>736</v>
       </c>
@@ -3018,12 +3018,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>736</v>
       </c>
@@ -3031,12 +3031,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>736</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>736</v>
       </c>
@@ -3052,12 +3052,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>736</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>768</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>736</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>718</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>736</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>736</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>736</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>746</v>
       </c>
@@ -3121,12 +3121,12 @@
         <v>775</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>736</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>736</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>736</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>736</v>
       </c>
@@ -3158,12 +3158,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>736</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>736</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>636</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>738</v>
       </c>
@@ -3195,17 +3195,17 @@
         <v>778</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>736</v>
       </c>
@@ -3213,12 +3213,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>736</v>
       </c>
@@ -3226,12 +3226,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>736</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>736</v>
       </c>
@@ -3247,12 +3247,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>736</v>
       </c>
@@ -3260,12 +3260,12 @@
         <v>771</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>636</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>636</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>736</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>736</v>
       </c>
@@ -3307,17 +3307,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="B41" s="4" t="s">
         <v>736</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="B42" s="4" t="s">
         <v>741</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="B43" s="4" t="s">
         <v>736</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="B44" s="4" t="s">
         <v>736</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="B45" s="4" t="s">
         <v>636</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="B46" s="4" t="s">
         <v>738</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="B47" s="4" t="s">
         <v>736</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="B48" s="4" t="s">
         <v>751</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" s="4" t="s">
         <v>736</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" s="4" t="s">
         <v>741</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" s="4" t="s">
         <v>736</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" s="4" t="s">
         <v>738</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53" s="4" t="s">
         <v>736</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54" s="4" t="s">
         <v>736</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" s="4" t="s">
         <v>741</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" s="4" t="s">
         <v>736</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57" s="4" t="s">
         <v>738</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" s="4" t="s">
         <v>636</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59" s="4" t="s">
         <v>636</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60" s="4" t="s">
         <v>736</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61" s="4" t="s">
         <v>736</v>
       </c>
@@ -3939,15 +3939,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>149</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>157</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>159</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>161</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>169</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>173</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>191</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>195</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>197</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>203</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>209</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>215</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>221</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>223</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>225</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>227</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>229</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>233</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>235</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>237</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>239</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>241</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>243</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>245</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>247</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>249</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>251</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>253</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>255</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>257</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>259</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>261</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>263</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>265</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>267</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>269</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>271</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>273</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>275</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>277</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>279</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>281</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>285</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>287</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>289</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>291</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>293</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>295</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>297</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>299</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>301</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>303</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>305</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>307</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>309</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>311</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>313</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>315</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>317</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>319</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>321</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>323</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>325</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>327</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>329</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>331</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>333</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>337</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>339</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>341</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>343</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>349</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>351</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>353</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>355</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>357</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>359</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>361</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>363</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>365</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>367</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>369</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>371</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>373</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>375</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>377</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>379</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>381</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>383</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>385</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>387</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>389</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>391</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>393</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>395</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>397</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>399</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>401</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>403</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>405</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>407</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>409</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>411</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>413</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>415</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>417</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>419</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>421</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>423</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>425</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>427</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>429</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>431</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>433</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>435</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>437</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>441</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>443</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>445</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>447</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>449</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>451</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>453</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>455</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>457</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>459</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>461</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>463</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>465</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>467</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>469</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>471</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>473</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>475</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>477</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>479</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>481</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>483</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>485</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>487</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>489</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>491</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>493</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>495</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>497</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>499</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>501</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>503</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>505</v>
       </c>
@@ -7878,15 +7878,15 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>785</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>786</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>787</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>788</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>789</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>790</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>793</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>794</v>
       </c>
@@ -8197,15 +8197,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
@@ -8228,7 +8230,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>513</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>517</v>
       </c>
@@ -8262,7 +8264,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>519</v>
       </c>
@@ -8279,7 +8281,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>521</v>
       </c>
@@ -8296,7 +8298,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>523</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>525</v>
       </c>
@@ -8330,7 +8332,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>527</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>529</v>
       </c>
@@ -8364,7 +8366,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>531</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>533</v>
       </c>
@@ -8398,7 +8400,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>535</v>
       </c>
@@ -8415,7 +8417,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>537</v>
       </c>
@@ -8432,7 +8434,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>539</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>541</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -8483,7 +8485,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>545</v>
       </c>
@@ -8500,7 +8502,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>547</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>549</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>551</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>553</v>
       </c>
@@ -8568,7 +8570,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>555</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>557</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>559</v>
       </c>
@@ -8619,7 +8621,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>561</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>563</v>
       </c>
@@ -8653,7 +8655,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>565</v>
       </c>
@@ -8670,7 +8672,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>567</v>
       </c>
@@ -8687,7 +8689,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>569</v>
       </c>
@@ -8704,7 +8706,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>571</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>573</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>575</v>
       </c>
@@ -8755,7 +8757,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>577</v>
       </c>
@@ -8772,7 +8774,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>579</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>581</v>
       </c>
@@ -8806,7 +8808,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>583</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>585</v>
       </c>
@@ -8840,7 +8842,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>587</v>
       </c>
@@ -8857,7 +8859,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>589</v>
       </c>
@@ -8874,7 +8876,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>591</v>
       </c>
@@ -8902,17 +8904,17 @@
   <dimension ref="A1:I450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E455" sqref="E455"/>
+      <selection sqref="A1:I450"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>593</v>
       </c>
@@ -8941,7 +8943,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="6">
         <v>45659</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="6">
         <v>45659</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="6">
         <v>45659</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="6">
         <v>45659</v>
       </c>
@@ -9045,7 +9047,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="6">
         <v>45659</v>
       </c>
@@ -9071,7 +9073,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="6">
         <v>45660</v>
       </c>
@@ -9097,7 +9099,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="6">
         <v>45660</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="6">
         <v>45660</v>
       </c>
@@ -9149,7 +9151,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="6">
         <v>45660</v>
       </c>
@@ -9175,7 +9177,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="6">
         <v>45660</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="6">
         <v>45660</v>
       </c>
@@ -9227,7 +9229,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="6">
         <v>45661</v>
       </c>
@@ -9253,7 +9255,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>45661</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>45661</v>
       </c>
@@ -9305,7 +9307,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>45663</v>
       </c>
@@ -9331,7 +9333,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>45663</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>45663</v>
       </c>
@@ -9383,7 +9385,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>45664</v>
       </c>
@@ -9409,7 +9411,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>45664</v>
       </c>
@@ -9435,7 +9437,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>45664</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>45664</v>
       </c>
@@ -9487,7 +9489,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>45664</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>45665</v>
       </c>
@@ -9539,7 +9541,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>45665</v>
       </c>
@@ -9565,7 +9567,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>45665</v>
       </c>
@@ -9591,7 +9593,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>45665</v>
       </c>
@@ -9617,7 +9619,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
         <v>45665</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>45666</v>
       </c>
@@ -9669,7 +9671,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="6">
         <v>45666</v>
       </c>
@@ -9695,7 +9697,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="6">
         <v>45666</v>
       </c>
@@ -9721,7 +9723,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>45666</v>
       </c>
@@ -9747,7 +9749,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="6">
         <v>45666</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="6">
         <v>45667</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="6">
         <v>45667</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="6">
         <v>45667</v>
       </c>
@@ -9851,7 +9853,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="6">
         <v>45667</v>
       </c>
@@ -9877,7 +9879,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>45667</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="6">
         <v>45667</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="6">
         <v>45668</v>
       </c>
@@ -9955,7 +9957,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="6">
         <v>45668</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="6">
         <v>45668</v>
       </c>
@@ -10007,7 +10009,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="6">
         <v>45670</v>
       </c>
@@ -10033,7 +10035,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="6">
         <v>45670</v>
       </c>
@@ -10059,7 +10061,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="6">
         <v>45670</v>
       </c>
@@ -10085,7 +10087,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="6">
         <v>45670</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="6">
         <v>45670</v>
       </c>
@@ -10137,7 +10139,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="6">
         <v>45670</v>
       </c>
@@ -10163,7 +10165,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="6">
         <v>45671</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="6">
         <v>45671</v>
       </c>
@@ -10215,7 +10217,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="6">
         <v>45671</v>
       </c>
@@ -10241,7 +10243,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="6">
         <v>45671</v>
       </c>
@@ -10267,7 +10269,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="6">
         <v>45671</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="6">
         <v>45671</v>
       </c>
@@ -10319,7 +10321,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="6">
         <v>45672</v>
       </c>
@@ -10345,7 +10347,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="6">
         <v>45672</v>
       </c>
@@ -10371,7 +10373,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="6">
         <v>45672</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="6">
         <v>45672</v>
       </c>
@@ -10423,7 +10425,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="6">
         <v>45672</v>
       </c>
@@ -10449,7 +10451,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="6">
         <v>45672</v>
       </c>
@@ -10475,7 +10477,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="6">
         <v>45673</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="6">
         <v>45673</v>
       </c>
@@ -10527,7 +10529,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="6">
         <v>45673</v>
       </c>
@@ -10553,7 +10555,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="6">
         <v>45673</v>
       </c>
@@ -10579,7 +10581,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="6">
         <v>45674</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="6">
         <v>45674</v>
       </c>
@@ -10631,7 +10633,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="6">
         <v>45674</v>
       </c>
@@ -10657,7 +10659,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="6">
         <v>45674</v>
       </c>
@@ -10683,7 +10685,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="6">
         <v>45675</v>
       </c>
@@ -10709,7 +10711,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="6">
         <v>45675</v>
       </c>
@@ -10735,7 +10737,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="6">
         <v>45675</v>
       </c>
@@ -10761,7 +10763,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="6">
         <v>45675</v>
       </c>
@@ -10787,7 +10789,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="6">
         <v>45677</v>
       </c>
@@ -10813,7 +10815,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="6">
         <v>45677</v>
       </c>
@@ -10839,7 +10841,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="6">
         <v>45677</v>
       </c>
@@ -10865,7 +10867,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" s="6">
         <v>45677</v>
       </c>
@@ -10891,7 +10893,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="6">
         <v>45678</v>
       </c>
@@ -10917,7 +10919,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="6">
         <v>45678</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="6">
         <v>45678</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="6">
         <v>45678</v>
       </c>
@@ -10995,7 +10997,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" s="6">
         <v>45679</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" s="6">
         <v>45679</v>
       </c>
@@ -11047,7 +11049,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" s="6">
         <v>45679</v>
       </c>
@@ -11073,7 +11075,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" s="6">
         <v>45679</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="6">
         <v>45679</v>
       </c>
@@ -11125,7 +11127,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" s="6">
         <v>45680</v>
       </c>
@@ -11151,7 +11153,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="6">
         <v>45680</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" s="6">
         <v>45680</v>
       </c>
@@ -11203,7 +11205,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" s="6">
         <v>45681</v>
       </c>
@@ -11229,7 +11231,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" s="6">
         <v>45688</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="6">
         <v>45691</v>
       </c>
@@ -11281,7 +11283,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="6">
         <v>45691</v>
       </c>
@@ -11307,7 +11309,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" s="6">
         <v>45692</v>
       </c>
@@ -11333,7 +11335,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" s="6">
         <v>45692</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="6">
         <v>45693</v>
       </c>
@@ -11385,7 +11387,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="6">
         <v>45693</v>
       </c>
@@ -11411,7 +11413,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="6">
         <v>45693</v>
       </c>
@@ -11437,7 +11439,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="6">
         <v>45695</v>
       </c>
@@ -11463,7 +11465,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" s="6">
         <v>45695</v>
       </c>
@@ -11489,7 +11491,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="6">
         <v>45699</v>
       </c>
@@ -11515,7 +11517,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="6">
         <v>45699</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" s="6">
         <v>45699</v>
       </c>
@@ -11567,7 +11569,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" s="6">
         <v>45700</v>
       </c>
@@ -11593,7 +11595,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="6">
         <v>45700</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" s="6">
         <v>45700</v>
       </c>
@@ -11645,7 +11647,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" s="6">
         <v>45700</v>
       </c>
@@ -11671,7 +11673,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" s="6">
         <v>45700</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" s="6">
         <v>45701</v>
       </c>
@@ -11723,7 +11725,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" s="6">
         <v>45701</v>
       </c>
@@ -11749,7 +11751,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" s="6">
         <v>45701</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" s="6">
         <v>45701</v>
       </c>
@@ -11801,7 +11803,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" s="6">
         <v>45702</v>
       </c>
@@ -11827,7 +11829,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="6">
         <v>45703</v>
       </c>
@@ -11853,7 +11855,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" s="6">
         <v>45705</v>
       </c>
@@ -11879,7 +11881,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" s="6">
         <v>45706</v>
       </c>
@@ -11905,7 +11907,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>45706</v>
       </c>
@@ -11931,7 +11933,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" s="6">
         <v>45707</v>
       </c>
@@ -11957,7 +11959,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="6">
         <v>45707</v>
       </c>
@@ -11983,7 +11985,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="6">
         <v>45707</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="6">
         <v>45707</v>
       </c>
@@ -12035,7 +12037,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" s="6">
         <v>45708</v>
       </c>
@@ -12061,7 +12063,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="6">
         <v>45708</v>
       </c>
@@ -12087,7 +12089,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="6">
         <v>45708</v>
       </c>
@@ -12113,7 +12115,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" s="6">
         <v>45708</v>
       </c>
@@ -12139,7 +12141,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" s="6">
         <v>45708</v>
       </c>
@@ -12165,7 +12167,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" s="6">
         <v>45708</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="6">
         <v>45709</v>
       </c>
@@ -12217,7 +12219,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="6">
         <v>45709</v>
       </c>
@@ -12243,7 +12245,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="6">
         <v>45709</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" s="6">
         <v>45710</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="6">
         <v>45710</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="6">
         <v>45710</v>
       </c>
@@ -12347,7 +12349,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="6">
         <v>45712</v>
       </c>
@@ -12373,7 +12375,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="6">
         <v>45712</v>
       </c>
@@ -12399,7 +12401,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" s="6">
         <v>45712</v>
       </c>
@@ -12425,7 +12427,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="6">
         <v>45712</v>
       </c>
@@ -12451,7 +12453,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="6">
         <v>45712</v>
       </c>
@@ -12477,7 +12479,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="6">
         <v>45713</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="6">
         <v>45713</v>
       </c>
@@ -12529,7 +12531,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="6">
         <v>45713</v>
       </c>
@@ -12555,7 +12557,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="6">
         <v>45713</v>
       </c>
@@ -12581,7 +12583,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" s="6">
         <v>45713</v>
       </c>
@@ -12607,7 +12609,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" s="6">
         <v>45714</v>
       </c>
@@ -12633,7 +12635,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8">
       <c r="A144" s="6">
         <v>45714</v>
       </c>
@@ -12659,7 +12661,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8">
       <c r="A145" s="6">
         <v>45714</v>
       </c>
@@ -12685,7 +12687,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" s="6">
         <v>45715</v>
       </c>
@@ -12711,7 +12713,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8">
       <c r="A147" s="6">
         <v>45715</v>
       </c>
@@ -12737,7 +12739,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="6">
         <v>45715</v>
       </c>
@@ -12763,7 +12765,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8">
       <c r="A149" s="6">
         <v>45716</v>
       </c>
@@ -12789,7 +12791,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="6">
         <v>45716</v>
       </c>
@@ -12815,7 +12817,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="6">
         <v>45716</v>
       </c>
@@ -12841,7 +12843,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="6">
         <v>45716</v>
       </c>
@@ -12867,7 +12869,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="6">
         <v>45721</v>
       </c>
@@ -12893,7 +12895,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
       <c r="A154" s="6">
         <v>45722</v>
       </c>
@@ -12919,7 +12921,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8">
       <c r="A155" s="6">
         <v>45726</v>
       </c>
@@ -12945,7 +12947,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8">
       <c r="A156" s="6">
         <v>45740</v>
       </c>
@@ -12971,7 +12973,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="A157" s="6">
         <v>45741</v>
       </c>
@@ -12997,7 +12999,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8">
       <c r="A158" s="6">
         <v>45741</v>
       </c>
@@ -13023,7 +13025,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8">
       <c r="A159" s="6">
         <v>45743</v>
       </c>
@@ -13049,7 +13051,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="A160" s="6">
         <v>45744</v>
       </c>
@@ -13075,7 +13077,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8">
       <c r="A161" s="6">
         <v>45748</v>
       </c>
@@ -13101,7 +13103,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8">
       <c r="A162" s="6">
         <v>45757</v>
       </c>
@@ -13127,7 +13129,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" s="6">
         <v>45758</v>
       </c>
@@ -13153,7 +13155,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="A164" s="6">
         <v>45770</v>
       </c>
@@ -13179,7 +13181,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="A165" s="6">
         <v>45779</v>
       </c>
@@ -13205,7 +13207,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8">
       <c r="A166" s="6">
         <v>45784</v>
       </c>
@@ -13231,7 +13233,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="A167" s="6">
         <v>45799</v>
       </c>
@@ -13257,7 +13259,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8">
       <c r="A168" s="6">
         <v>45808</v>
       </c>
@@ -13283,7 +13285,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8">
       <c r="A169" s="6">
         <v>45812</v>
       </c>
@@ -13309,7 +13311,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8">
       <c r="A170" s="6">
         <v>45812</v>
       </c>
@@ -13335,7 +13337,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8">
       <c r="A171" s="6">
         <v>45813</v>
       </c>
@@ -13361,7 +13363,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8">
       <c r="A172" s="6">
         <v>45813</v>
       </c>
@@ -13387,7 +13389,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8">
       <c r="A173" s="6">
         <v>45814</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8">
       <c r="A174" s="6">
         <v>45815</v>
       </c>
@@ -13439,7 +13441,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8">
       <c r="A175" s="6">
         <v>45815</v>
       </c>
@@ -13465,7 +13467,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8">
       <c r="A176" s="6">
         <v>45817</v>
       </c>
@@ -13491,7 +13493,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8">
       <c r="A177" s="6">
         <v>45818</v>
       </c>
@@ -13517,7 +13519,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8">
       <c r="A178" s="6">
         <v>45818</v>
       </c>
@@ -13543,7 +13545,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8">
       <c r="A179" s="6">
         <v>45819</v>
       </c>
@@ -13569,7 +13571,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8">
       <c r="A180" s="6">
         <v>45819</v>
       </c>
@@ -13595,7 +13597,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="A181" s="6">
         <v>45820</v>
       </c>
@@ -13621,7 +13623,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="A182" s="6">
         <v>45820</v>
       </c>
@@ -13647,7 +13649,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="A183" s="6">
         <v>45822</v>
       </c>
@@ -13673,7 +13675,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8">
       <c r="A184" s="6">
         <v>45822</v>
       </c>
@@ -13699,7 +13701,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8">
       <c r="A185" s="6">
         <v>45824</v>
       </c>
@@ -13725,7 +13727,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="A186" s="6">
         <v>45824</v>
       </c>
@@ -13751,7 +13753,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8">
       <c r="A187" s="6">
         <v>45825</v>
       </c>
@@ -13777,7 +13779,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8">
       <c r="A188" s="6">
         <v>45825</v>
       </c>
@@ -13803,7 +13805,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8">
       <c r="A189" s="6">
         <v>45826</v>
       </c>
@@ -13829,7 +13831,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8">
       <c r="A190" s="6">
         <v>45826</v>
       </c>
@@ -13855,7 +13857,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8">
       <c r="A191" s="6">
         <v>45827</v>
       </c>
@@ -13881,7 +13883,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8">
       <c r="A192" s="6">
         <v>45827</v>
       </c>
@@ -13907,7 +13909,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8">
       <c r="A193" s="6">
         <v>45828</v>
       </c>
@@ -13933,7 +13935,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8">
       <c r="A194" s="6">
         <v>45828</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8">
       <c r="A195" s="6">
         <v>45829</v>
       </c>
@@ -13985,7 +13987,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8">
       <c r="A196" s="6">
         <v>45829</v>
       </c>
@@ -14011,7 +14013,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8">
       <c r="A197" s="6">
         <v>45830</v>
       </c>
@@ -14037,7 +14039,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8">
       <c r="A198" s="6">
         <v>45831</v>
       </c>
@@ -14063,7 +14065,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8">
       <c r="A199" s="6">
         <v>45831</v>
       </c>
@@ -14089,7 +14091,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8">
       <c r="A200" s="6">
         <v>45832</v>
       </c>
@@ -14115,7 +14117,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8">
       <c r="A201" s="6">
         <v>45832</v>
       </c>
@@ -14141,7 +14143,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8">
       <c r="A202" s="6">
         <v>45833</v>
       </c>
@@ -14167,7 +14169,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8">
       <c r="A203" s="6">
         <v>45834</v>
       </c>
@@ -14193,7 +14195,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8">
       <c r="A204" s="6">
         <v>45835</v>
       </c>
@@ -14219,7 +14221,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8">
       <c r="A205" s="6">
         <v>45835</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8">
       <c r="A206" s="6">
         <v>45836</v>
       </c>
@@ -14271,7 +14273,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8">
       <c r="A207" s="6">
         <v>45838</v>
       </c>
@@ -14297,7 +14299,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8">
       <c r="A208" s="6">
         <v>45838</v>
       </c>
@@ -14323,7 +14325,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8">
       <c r="A209" s="6">
         <v>45839</v>
       </c>
@@ -14349,7 +14351,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8">
       <c r="A210" s="6">
         <v>45839</v>
       </c>
@@ -14375,7 +14377,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8">
       <c r="A211" s="6">
         <v>45840</v>
       </c>
@@ -14401,7 +14403,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8">
       <c r="A212" s="6">
         <v>45840</v>
       </c>
@@ -14427,7 +14429,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8">
       <c r="A213" s="6">
         <v>45841</v>
       </c>
@@ -14453,7 +14455,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8">
       <c r="A214" s="6">
         <v>45841</v>
       </c>
@@ -14479,7 +14481,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8">
       <c r="A215" s="6">
         <v>45842</v>
       </c>
@@ -14505,7 +14507,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8">
       <c r="A216" s="6">
         <v>45842</v>
       </c>
@@ -14531,7 +14533,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8">
       <c r="A217" s="6">
         <v>45843</v>
       </c>
@@ -14557,7 +14559,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8">
       <c r="A218" s="6">
         <v>45843</v>
       </c>
@@ -14583,7 +14585,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8">
       <c r="A219" s="6">
         <v>45845</v>
       </c>
@@ -14609,7 +14611,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8">
       <c r="A220" s="6">
         <v>45845</v>
       </c>
@@ -14635,7 +14637,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8">
       <c r="A221" s="6">
         <v>45846</v>
       </c>
@@ -14661,7 +14663,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8">
       <c r="A222" s="6">
         <v>45846</v>
       </c>
@@ -14687,7 +14689,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8">
       <c r="A223" s="6">
         <v>45847</v>
       </c>
@@ -14713,7 +14715,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8">
       <c r="A224" s="6">
         <v>45847</v>
       </c>
@@ -14739,7 +14741,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8">
       <c r="A225" s="6">
         <v>45848</v>
       </c>
@@ -14765,7 +14767,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8">
       <c r="A226" s="6">
         <v>45848</v>
       </c>
@@ -14791,7 +14793,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8">
       <c r="A227" s="6">
         <v>45849</v>
       </c>
@@ -14817,7 +14819,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8">
       <c r="A228" s="6">
         <v>45849</v>
       </c>
@@ -14843,7 +14845,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8">
       <c r="A229" s="6">
         <v>45850</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8">
       <c r="A230" s="6">
         <v>45850</v>
       </c>
@@ -14895,7 +14897,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8">
       <c r="A231" s="6">
         <v>45851</v>
       </c>
@@ -14921,7 +14923,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8">
       <c r="A232" s="6">
         <v>45852</v>
       </c>
@@ -14947,7 +14949,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8">
       <c r="A233" s="6">
         <v>45852</v>
       </c>
@@ -14973,7 +14975,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8">
       <c r="A234" s="6">
         <v>45853</v>
       </c>
@@ -14999,7 +15001,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8">
       <c r="A235" s="6">
         <v>45854</v>
       </c>
@@ -15025,7 +15027,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8">
       <c r="A236" s="6">
         <v>45854</v>
       </c>
@@ -15051,7 +15053,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8">
       <c r="A237" s="6">
         <v>45855</v>
       </c>
@@ -15077,7 +15079,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8">
       <c r="A238" s="6">
         <v>45855</v>
       </c>
@@ -15103,7 +15105,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8">
       <c r="A239" s="6">
         <v>45856</v>
       </c>
@@ -15129,7 +15131,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8">
       <c r="A240" s="6">
         <v>45856</v>
       </c>
@@ -15155,7 +15157,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8">
       <c r="A241" s="6">
         <v>45857</v>
       </c>
@@ -15181,7 +15183,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8">
       <c r="A242" s="6">
         <v>45857</v>
       </c>
@@ -15207,7 +15209,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8">
       <c r="A243" s="6">
         <v>45859</v>
       </c>
@@ -15233,7 +15235,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8">
       <c r="A244" s="6">
         <v>45859</v>
       </c>
@@ -15259,7 +15261,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8">
       <c r="A245" s="6">
         <v>45860</v>
       </c>
@@ -15285,7 +15287,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8">
       <c r="A246" s="6">
         <v>45860</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8">
       <c r="A247" s="6">
         <v>45861</v>
       </c>
@@ -15337,7 +15339,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8">
       <c r="A248" s="6">
         <v>45861</v>
       </c>
@@ -15363,7 +15365,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8">
       <c r="A249" s="6">
         <v>45862</v>
       </c>
@@ -15389,7 +15391,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8">
       <c r="A250" s="6">
         <v>45862</v>
       </c>
@@ -15415,7 +15417,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8">
       <c r="A251" s="6">
         <v>45863</v>
       </c>
@@ -15441,7 +15443,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8">
       <c r="A252" s="6">
         <v>45863</v>
       </c>
@@ -15467,7 +15469,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8">
       <c r="A253" s="6">
         <v>45864</v>
       </c>
@@ -15493,7 +15495,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8">
       <c r="A254" s="6">
         <v>45866</v>
       </c>
@@ -15519,7 +15521,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8">
       <c r="A255" s="6">
         <v>45866</v>
       </c>
@@ -15545,7 +15547,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8">
       <c r="A256" s="6">
         <v>45867</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9">
       <c r="A257" s="6">
         <v>45868</v>
       </c>
@@ -15597,7 +15599,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9">
       <c r="A258" s="6">
         <v>45868</v>
       </c>
@@ -15623,7 +15625,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9">
       <c r="A259" s="6">
         <v>45869</v>
       </c>
@@ -15649,7 +15651,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9">
       <c r="A260" s="6">
         <v>45869</v>
       </c>
@@ -15675,7 +15677,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9">
       <c r="A261" s="6">
         <v>45870</v>
       </c>
@@ -15701,7 +15703,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9">
       <c r="A262" s="6">
         <v>45870</v>
       </c>
@@ -15727,7 +15729,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9">
       <c r="A263" s="6">
         <v>45870</v>
       </c>
@@ -15753,7 +15755,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9">
       <c r="A264" s="6">
         <v>45871</v>
       </c>
@@ -15779,7 +15781,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9">
       <c r="A265" s="6">
         <v>45871</v>
       </c>
@@ -15805,7 +15807,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9">
       <c r="A266" s="6">
         <v>45871</v>
       </c>
@@ -15831,7 +15833,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9">
       <c r="A267" s="6">
         <v>45873</v>
       </c>
@@ -15857,7 +15859,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9">
       <c r="A268" s="6">
         <v>45873</v>
       </c>
@@ -15883,7 +15885,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9">
       <c r="A269" s="6">
         <v>45873</v>
       </c>
@@ -15909,7 +15911,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9">
       <c r="A270" s="6">
         <v>45873</v>
       </c>
@@ -15935,7 +15937,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9">
       <c r="A271" s="6">
         <v>45874</v>
       </c>
@@ -15964,7 +15966,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9">
       <c r="A272" s="6">
         <v>45874</v>
       </c>
@@ -15993,7 +15995,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9">
       <c r="A273" s="6">
         <v>45874</v>
       </c>
@@ -16019,7 +16021,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9">
       <c r="A274" s="6">
         <v>45874</v>
       </c>
@@ -16045,7 +16047,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9">
       <c r="A275" s="6">
         <v>45875</v>
       </c>
@@ -16071,7 +16073,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9">
       <c r="A276" s="6">
         <v>45875</v>
       </c>
@@ -16097,7 +16099,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9">
       <c r="A277" s="6">
         <v>45875</v>
       </c>
@@ -16123,7 +16125,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9">
       <c r="A278" s="6">
         <v>45875</v>
       </c>
@@ -16149,7 +16151,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9">
       <c r="A279" s="6">
         <v>45876</v>
       </c>
@@ -16175,7 +16177,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9">
       <c r="A280" s="6">
         <v>45876</v>
       </c>
@@ -16201,7 +16203,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9">
       <c r="A281" s="6">
         <v>45876</v>
       </c>
@@ -16227,7 +16229,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9">
       <c r="A282" s="6">
         <v>45876</v>
       </c>
@@ -16253,7 +16255,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9">
       <c r="A283" s="6">
         <v>45877</v>
       </c>
@@ -16279,7 +16281,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9">
       <c r="A284" s="6">
         <v>45877</v>
       </c>
@@ -16305,7 +16307,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9">
       <c r="A285" s="6">
         <v>45877</v>
       </c>
@@ -16331,7 +16333,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9">
       <c r="A286" s="6">
         <v>45877</v>
       </c>
@@ -16357,7 +16359,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9">
       <c r="A287" s="6">
         <v>45878</v>
       </c>
@@ -16386,7 +16388,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9">
       <c r="A288" s="6">
         <v>45878</v>
       </c>
@@ -16412,7 +16414,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="6">
         <v>45878</v>
       </c>
@@ -16438,7 +16440,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="A290" s="6">
         <v>45878</v>
       </c>
@@ -16464,7 +16466,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="A291" s="6">
         <v>45880</v>
       </c>
@@ -16490,7 +16492,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="A292" s="6">
         <v>45880</v>
       </c>
@@ -16516,7 +16518,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="A293" s="6">
         <v>45880</v>
       </c>
@@ -16542,7 +16544,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="A294" s="6">
         <v>45881</v>
       </c>
@@ -16568,7 +16570,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="A295" s="6">
         <v>45881</v>
       </c>
@@ -16594,7 +16596,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="A296" s="6">
         <v>45881</v>
       </c>
@@ -16620,7 +16622,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="A297" s="6">
         <v>45881</v>
       </c>
@@ -16646,7 +16648,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9">
       <c r="A298" s="6">
         <v>45881</v>
       </c>
@@ -16672,7 +16674,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" s="6">
         <v>45882</v>
       </c>
@@ -16698,7 +16700,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="A300" s="6">
         <v>45882</v>
       </c>
@@ -16727,7 +16729,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="A301" s="6">
         <v>45882</v>
       </c>
@@ -16756,7 +16758,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9">
       <c r="A302" s="6">
         <v>45882</v>
       </c>
@@ -16782,7 +16784,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9">
       <c r="A303" s="6">
         <v>45882</v>
       </c>
@@ -16808,7 +16810,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9">
       <c r="A304" s="6">
         <v>45883</v>
       </c>
@@ -16837,7 +16839,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9">
       <c r="A305" s="6">
         <v>45883</v>
       </c>
@@ -16863,7 +16865,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9">
       <c r="A306" s="6">
         <v>45883</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9">
       <c r="A307" s="6">
         <v>45883</v>
       </c>
@@ -16915,7 +16917,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9">
       <c r="A308" s="6">
         <v>45883</v>
       </c>
@@ -16941,7 +16943,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9">
       <c r="A309" s="6">
         <v>45884</v>
       </c>
@@ -16967,7 +16969,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9">
       <c r="A310" s="6">
         <v>45884</v>
       </c>
@@ -16993,7 +16995,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9">
       <c r="A311" s="6">
         <v>45884</v>
       </c>
@@ -17019,7 +17021,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9">
       <c r="A312" s="6">
         <v>45885</v>
       </c>
@@ -17048,7 +17050,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9">
       <c r="A313" s="6">
         <v>45885</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9">
       <c r="A314" s="6">
         <v>45885</v>
       </c>
@@ -17103,7 +17105,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9">
       <c r="A315" s="6">
         <v>45885</v>
       </c>
@@ -17132,7 +17134,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9">
       <c r="A316" s="6">
         <v>45887</v>
       </c>
@@ -17158,7 +17160,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9">
       <c r="A317" s="6">
         <v>45887</v>
       </c>
@@ -17184,7 +17186,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9">
       <c r="A318" s="6">
         <v>45887</v>
       </c>
@@ -17210,7 +17212,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9">
       <c r="A319" s="6">
         <v>45887</v>
       </c>
@@ -17236,7 +17238,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9">
       <c r="A320" s="6">
         <v>45887</v>
       </c>
@@ -17262,7 +17264,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9">
       <c r="A321" s="6">
         <v>45888</v>
       </c>
@@ -17288,7 +17290,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9">
       <c r="A322" s="6">
         <v>45888</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9">
       <c r="A323" s="6">
         <v>45888</v>
       </c>
@@ -17340,7 +17342,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9">
       <c r="A324" s="6">
         <v>45888</v>
       </c>
@@ -17366,7 +17368,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9">
       <c r="A325" s="6">
         <v>45888</v>
       </c>
@@ -17392,7 +17394,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9">
       <c r="A326" s="6">
         <v>45889</v>
       </c>
@@ -17421,7 +17423,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9">
       <c r="A327" s="6">
         <v>45889</v>
       </c>
@@ -17447,7 +17449,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" s="6">
         <v>45889</v>
       </c>
@@ -17473,7 +17475,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="A329" s="6">
         <v>45889</v>
       </c>
@@ -17499,7 +17501,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="A330" s="6">
         <v>45889</v>
       </c>
@@ -17525,7 +17527,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="A331" s="6">
         <v>45890</v>
       </c>
@@ -17554,7 +17556,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="A332" s="6">
         <v>45890</v>
       </c>
@@ -17580,7 +17582,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="A333" s="6">
         <v>45890</v>
       </c>
@@ -17606,7 +17608,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="A334" s="6">
         <v>45890</v>
       </c>
@@ -17632,7 +17634,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="A335" s="6">
         <v>45891</v>
       </c>
@@ -17658,7 +17660,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" s="6">
         <v>45891</v>
       </c>
@@ -17684,7 +17686,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9">
       <c r="A337" s="6">
         <v>45891</v>
       </c>
@@ -17710,7 +17712,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9">
       <c r="A338" s="6">
         <v>45891</v>
       </c>
@@ -17736,7 +17738,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9">
       <c r="A339" s="6">
         <v>45891</v>
       </c>
@@ -17762,7 +17764,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9">
       <c r="A340" s="6">
         <v>45892</v>
       </c>
@@ -17791,7 +17793,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9">
       <c r="A341" s="6">
         <v>45892</v>
       </c>
@@ -17820,7 +17822,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9">
       <c r="A342" s="6">
         <v>45892</v>
       </c>
@@ -17849,7 +17851,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9">
       <c r="A343" s="6">
         <v>45892</v>
       </c>
@@ -17878,7 +17880,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9">
       <c r="A344" s="6">
         <v>45892</v>
       </c>
@@ -17907,7 +17909,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9">
       <c r="A345" s="6">
         <v>45894</v>
       </c>
@@ -17936,7 +17938,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9">
       <c r="A346" s="6">
         <v>45894</v>
       </c>
@@ -17965,7 +17967,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9">
       <c r="A347" s="6">
         <v>45895</v>
       </c>
@@ -17994,7 +17996,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9">
       <c r="A348" s="6">
         <v>45895</v>
       </c>
@@ -18023,7 +18025,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9">
       <c r="A349" s="6">
         <v>45895</v>
       </c>
@@ -18052,7 +18054,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9">
       <c r="A350" s="6">
         <v>45896</v>
       </c>
@@ -18081,7 +18083,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9">
       <c r="A351" s="6">
         <v>45896</v>
       </c>
@@ -18110,7 +18112,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9">
       <c r="A352" s="6">
         <v>45896</v>
       </c>
@@ -18139,7 +18141,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9">
       <c r="A353" s="6">
         <v>45897</v>
       </c>
@@ -18168,7 +18170,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9">
       <c r="A354" s="6">
         <v>45897</v>
       </c>
@@ -18197,7 +18199,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9">
       <c r="A355" s="6">
         <v>45897</v>
       </c>
@@ -18226,7 +18228,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9">
       <c r="A356" s="6">
         <v>45898</v>
       </c>
@@ -18255,7 +18257,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9">
       <c r="A357" s="6">
         <v>45898</v>
       </c>
@@ -18284,7 +18286,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9">
       <c r="A358" s="6">
         <v>45898</v>
       </c>
@@ -18313,7 +18315,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9">
       <c r="A359" s="6">
         <v>45898</v>
       </c>
@@ -18342,7 +18344,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9">
       <c r="A360" s="6">
         <v>45899</v>
       </c>
@@ -18371,7 +18373,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9">
       <c r="A361" s="6">
         <v>45899</v>
       </c>
@@ -18400,7 +18402,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9">
       <c r="A362" s="6">
         <v>45899</v>
       </c>
@@ -18429,7 +18431,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9">
       <c r="A363" s="6">
         <v>45899</v>
       </c>
@@ -18458,7 +18460,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9">
       <c r="A364" s="6">
         <v>45900</v>
       </c>
@@ -18487,7 +18489,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9">
       <c r="A365" s="6">
         <v>45901</v>
       </c>
@@ -18513,7 +18515,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9">
       <c r="A366" s="6">
         <v>45901</v>
       </c>
@@ -18539,7 +18541,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9">
       <c r="A367" s="6">
         <v>45901</v>
       </c>
@@ -18568,7 +18570,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9">
       <c r="A368" s="6">
         <v>45901</v>
       </c>
@@ -18597,7 +18599,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9">
       <c r="A369" s="6">
         <v>45902</v>
       </c>
@@ -18626,7 +18628,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9">
       <c r="A370" s="6">
         <v>45902</v>
       </c>
@@ -18655,7 +18657,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9">
       <c r="A371" s="6">
         <v>45902</v>
       </c>
@@ -18684,7 +18686,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9">
       <c r="A372" s="6">
         <v>45902</v>
       </c>
@@ -18713,7 +18715,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9">
       <c r="A373" s="6">
         <v>45902</v>
       </c>
@@ -18742,7 +18744,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9">
       <c r="A374" s="6">
         <v>45903</v>
       </c>
@@ -18771,7 +18773,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9">
       <c r="A375" s="6">
         <v>45903</v>
       </c>
@@ -18800,7 +18802,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9">
       <c r="A376" s="6">
         <v>45903</v>
       </c>
@@ -18829,7 +18831,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9">
       <c r="A377" s="6">
         <v>45903</v>
       </c>
@@ -18858,7 +18860,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9">
       <c r="A378" s="6">
         <v>45903</v>
       </c>
@@ -18887,7 +18889,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9">
       <c r="A379" s="6">
         <v>45904</v>
       </c>
@@ -18916,7 +18918,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9">
       <c r="A380" s="6">
         <v>45904</v>
       </c>
@@ -18942,7 +18944,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9">
       <c r="A381" s="6">
         <v>45904</v>
       </c>
@@ -18968,7 +18970,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9">
       <c r="A382" s="6">
         <v>45904</v>
       </c>
@@ -18997,7 +18999,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9">
       <c r="A383" s="6">
         <v>45904</v>
       </c>
@@ -19026,7 +19028,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9">
       <c r="A384" s="6">
         <v>45905</v>
       </c>
@@ -19055,7 +19057,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9">
       <c r="A385" s="6">
         <v>45905</v>
       </c>
@@ -19084,7 +19086,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9">
       <c r="A386" s="6">
         <v>45905</v>
       </c>
@@ -19113,7 +19115,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9">
       <c r="A387" s="6">
         <v>45905</v>
       </c>
@@ -19139,7 +19141,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9">
       <c r="A388" s="6">
         <v>45905</v>
       </c>
@@ -19165,7 +19167,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9">
       <c r="A389" s="6">
         <v>45905</v>
       </c>
@@ -19191,7 +19193,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9">
       <c r="A390" s="6">
         <v>45905</v>
       </c>
@@ -19217,7 +19219,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9">
       <c r="A391" s="6">
         <v>45906</v>
       </c>
@@ -19246,7 +19248,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9">
       <c r="A392" s="6">
         <v>45906</v>
       </c>
@@ -19275,7 +19277,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9">
       <c r="A393" s="6">
         <v>45906</v>
       </c>
@@ -19301,7 +19303,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9">
       <c r="A394" s="6">
         <v>45906</v>
       </c>
@@ -19330,7 +19332,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9">
       <c r="A395" s="6">
         <v>45906</v>
       </c>
@@ -19359,7 +19361,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9">
       <c r="A396" s="6">
         <v>45907</v>
       </c>
@@ -19388,7 +19390,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9">
       <c r="A397" s="6">
         <v>45907</v>
       </c>
@@ -19417,7 +19419,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9">
       <c r="A398" s="6">
         <v>45908</v>
       </c>
@@ -19443,7 +19445,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9">
       <c r="A399" s="6">
         <v>45908</v>
       </c>
@@ -19472,7 +19474,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9">
       <c r="A400" s="6">
         <v>45908</v>
       </c>
@@ -19501,7 +19503,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9">
       <c r="A401" s="6">
         <v>45908</v>
       </c>
@@ -19530,7 +19532,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9">
       <c r="A402" s="6">
         <v>45909</v>
       </c>
@@ -19559,7 +19561,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9">
       <c r="A403" s="6">
         <v>45909</v>
       </c>
@@ -19588,7 +19590,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9">
       <c r="A404" s="6">
         <v>45909</v>
       </c>
@@ -19617,7 +19619,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9">
       <c r="A405" s="6">
         <v>45909</v>
       </c>
@@ -19646,7 +19648,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9">
       <c r="A406" s="6">
         <v>45909</v>
       </c>
@@ -19675,7 +19677,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9">
       <c r="A407" s="6">
         <v>45910</v>
       </c>
@@ -19701,7 +19703,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9">
       <c r="A408" s="6">
         <v>45910</v>
       </c>
@@ -19730,7 +19732,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9">
       <c r="A409" s="6">
         <v>45910</v>
       </c>
@@ -19759,7 +19761,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9">
       <c r="A410" s="6">
         <v>45910</v>
       </c>
@@ -19785,7 +19787,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9">
       <c r="A411" s="6">
         <v>45911</v>
       </c>
@@ -19814,7 +19816,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9">
       <c r="A412" s="6">
         <v>45911</v>
       </c>
@@ -19840,7 +19842,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9">
       <c r="A413" s="6">
         <v>45911</v>
       </c>
@@ -19869,7 +19871,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9">
       <c r="A414" s="6">
         <v>45912</v>
       </c>
@@ -19898,7 +19900,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9">
       <c r="A415" s="6">
         <v>45912</v>
       </c>
@@ -19924,7 +19926,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9">
       <c r="A416" s="6">
         <v>45912</v>
       </c>
@@ -19950,7 +19952,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9">
       <c r="A417" s="6">
         <v>45913</v>
       </c>
@@ -19979,7 +19981,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9">
       <c r="A418" s="6">
         <v>45913</v>
       </c>
@@ -20008,7 +20010,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9">
       <c r="A419" s="6">
         <v>45913</v>
       </c>
@@ -20037,7 +20039,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9">
       <c r="A420" s="6">
         <v>45915</v>
       </c>
@@ -20063,7 +20065,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9">
       <c r="A421" s="6">
         <v>45915</v>
       </c>
@@ -20089,7 +20091,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9">
       <c r="A422" s="6">
         <v>45916</v>
       </c>
@@ -20118,7 +20120,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9">
       <c r="A423" s="6">
         <v>45916</v>
       </c>
@@ -20147,7 +20149,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9">
       <c r="A424" s="6">
         <v>45916</v>
       </c>
@@ -20176,7 +20178,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9">
       <c r="A425" s="6">
         <v>45917</v>
       </c>
@@ -20205,7 +20207,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9">
       <c r="A426" s="6">
         <v>45917</v>
       </c>
@@ -20231,7 +20233,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9">
       <c r="A427" s="6">
         <v>45917</v>
       </c>
@@ -20257,7 +20259,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9">
       <c r="A428" s="6">
         <v>45918</v>
       </c>
@@ -20283,7 +20285,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9">
       <c r="A429" s="6">
         <v>45918</v>
       </c>
@@ -20309,7 +20311,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9">
       <c r="A430" s="6">
         <v>45918</v>
       </c>
@@ -20335,7 +20337,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9">
       <c r="A431" s="6">
         <v>45919</v>
       </c>
@@ -20364,7 +20366,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9">
       <c r="A432" s="6">
         <v>45919</v>
       </c>
@@ -20390,7 +20392,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9">
       <c r="A433" s="6">
         <v>45919</v>
       </c>
@@ -20416,7 +20418,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9">
       <c r="A434" s="6">
         <v>45919</v>
       </c>
@@ -20442,7 +20444,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9">
       <c r="A435" s="6">
         <v>45920</v>
       </c>
@@ -20471,7 +20473,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9">
       <c r="A436" s="6">
         <v>45920</v>
       </c>
@@ -20500,7 +20502,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9">
       <c r="A437" s="6">
         <v>45920</v>
       </c>
@@ -20529,7 +20531,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9">
       <c r="A438" s="6">
         <v>45922</v>
       </c>
@@ -20558,7 +20560,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9">
       <c r="A439" s="6">
         <v>45922</v>
       </c>
@@ -20587,7 +20589,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9">
       <c r="A440" s="6">
         <v>45922</v>
       </c>
@@ -20616,7 +20618,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9">
       <c r="A441" s="6">
         <v>45922</v>
       </c>
@@ -20645,7 +20647,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9">
       <c r="A442" s="6">
         <v>45922</v>
       </c>
@@ -20674,7 +20676,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9">
       <c r="A443" s="6">
         <v>45923</v>
       </c>
@@ -20700,7 +20702,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9">
       <c r="A444" s="6">
         <v>45923</v>
       </c>
@@ -20726,7 +20728,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9">
       <c r="A445" s="6">
         <v>45923</v>
       </c>
@@ -20755,7 +20757,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9">
       <c r="A446" s="6">
         <v>45924</v>
       </c>
@@ -20781,7 +20783,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9">
       <c r="A447" s="6">
         <v>45924</v>
       </c>
@@ -20807,7 +20809,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9">
       <c r="A448" s="6">
         <v>45924</v>
       </c>
@@ -20833,7 +20835,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8">
       <c r="A449" s="6">
         <v>45925</v>
       </c>
@@ -20859,7 +20861,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8">
       <c r="A450" s="6">
         <v>45925</v>
       </c>
